--- a/rainette/trunk/themes/codes.xlsx
+++ b/rainette/trunk/themes/codes.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Sites/SPIP/plugins/rainette/services/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Sites/SPIP/plugins/rainette/themes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83AD2A-E49B-5B40-B2B8-824023E7E41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC7CAB-ADED-404F-B684-B9861BBFFF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24100" yWindow="460" windowWidth="10000" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37820" yWindow="460" windowWidth="32300" windowHeight="22280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Apixu_weather_conditions" localSheetId="0">Feuil1!$I$2:$N$50</definedName>
-    <definedName name="Multilingual_Weather_Conditions" localSheetId="0">Feuil1!$P$2:$X$1002</definedName>
+    <definedName name="Apixu_weather_conditions" localSheetId="0">Feuil1!$V$2:$AA$50</definedName>
+    <definedName name="Multilingual_Weather_Conditions" localSheetId="0">Feuil1!$Q$2:$AB$1002</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="364">
   <si>
     <t>tornado</t>
   </si>
@@ -177,27 +177,9 @@
     <t>scattered thunderstorms</t>
   </si>
   <si>
-    <t>scattered showers</t>
-  </si>
-  <si>
     <t>heavy snow</t>
   </si>
   <si>
-    <t>scattered snow showers</t>
-  </si>
-  <si>
-    <t>partly cloudy</t>
-  </si>
-  <si>
-    <t>thundershowers</t>
-  </si>
-  <si>
-    <t>snow showers</t>
-  </si>
-  <si>
-    <t>isolated thundershowers</t>
-  </si>
-  <si>
     <t>WEATHER</t>
   </si>
   <si>
@@ -369,39 +351,6 @@
     <t>overcast clouds</t>
   </si>
   <si>
-    <t>calm</t>
-  </si>
-  <si>
-    <t>light breeze</t>
-  </si>
-  <si>
-    <t>gentle breeze</t>
-  </si>
-  <si>
-    <t>moderate breeze</t>
-  </si>
-  <si>
-    <t>fresh breeze</t>
-  </si>
-  <si>
-    <t>strong breeze</t>
-  </si>
-  <si>
-    <t>high wind, near gale</t>
-  </si>
-  <si>
-    <t>gale</t>
-  </si>
-  <si>
-    <t>severe gale</t>
-  </si>
-  <si>
-    <t>storm</t>
-  </si>
-  <si>
-    <t>violent storm</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -573,15 +522,6 @@
     <t>Danish</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>DayIcon</t>
-  </si>
-  <si>
-    <t>NightIcon</t>
-  </si>
-  <si>
     <t>Moderate or heavy snow in area with thunder</t>
   </si>
   <si>
@@ -711,9 +651,6 @@
     <t>wsymbol_0001_sunny</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>WWO</t>
   </si>
   <si>
@@ -862,13 +799,367 @@
   </si>
   <si>
     <t>wn</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>scattered showers (day)</t>
+  </si>
+  <si>
+    <t>heavy rain</t>
+  </si>
+  <si>
+    <t>scattered snow showers (day)</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>scattered showers (night)</t>
+  </si>
+  <si>
+    <t>scattered snow showers (night)</t>
+  </si>
+  <si>
+    <t>scattered thundershowers</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>partly cloudy / na</t>
+  </si>
+  <si>
+    <t>WEATHERBIT</t>
+  </si>
+  <si>
+    <t>Thunderstorm with light rain</t>
+  </si>
+  <si>
+    <t>Thunderstorm with rain</t>
+  </si>
+  <si>
+    <t>Thunderstorm with heavy rain</t>
+  </si>
+  <si>
+    <t>Thunderstorm with light drizzle</t>
+  </si>
+  <si>
+    <t>Thunderstorm with drizzle</t>
+  </si>
+  <si>
+    <t>Thunderstorm with heavy drizzle</t>
+  </si>
+  <si>
+    <t>Thunderstorm with Hail</t>
+  </si>
+  <si>
+    <t>Light Drizzle</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Heavy Drizzle</t>
+  </si>
+  <si>
+    <t>Light Rain</t>
+  </si>
+  <si>
+    <t>Moderate Rain</t>
+  </si>
+  <si>
+    <t>Heavy Rain</t>
+  </si>
+  <si>
+    <t>Freezing rain</t>
+  </si>
+  <si>
+    <t>Light shower rain</t>
+  </si>
+  <si>
+    <t>Shower rain</t>
+  </si>
+  <si>
+    <t>Heavy shower rain</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Heavy Snow</t>
+  </si>
+  <si>
+    <t>Mix snow/rain</t>
+  </si>
+  <si>
+    <t>Sleet</t>
+  </si>
+  <si>
+    <t>Heavy sleet</t>
+  </si>
+  <si>
+    <t>Snow shower</t>
+  </si>
+  <si>
+    <t>Heavy snow shower</t>
+  </si>
+  <si>
+    <t>Flurries</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Haze</t>
+  </si>
+  <si>
+    <t>Sand/dust</t>
+  </si>
+  <si>
+    <t>Freezing Fog</t>
+  </si>
+  <si>
+    <t>Clear sky</t>
+  </si>
+  <si>
+    <t>Few clouds</t>
+  </si>
+  <si>
+    <t>Scattered clouds</t>
+  </si>
+  <si>
+    <t>Broken clouds</t>
+  </si>
+  <si>
+    <t>Overcast clouds</t>
+  </si>
+  <si>
+    <t>Unknown Precipitation</t>
+  </si>
+  <si>
+    <t>t01d</t>
+  </si>
+  <si>
+    <t>t02d</t>
+  </si>
+  <si>
+    <t>t03d</t>
+  </si>
+  <si>
+    <t>t04d</t>
+  </si>
+  <si>
+    <t>t05d</t>
+  </si>
+  <si>
+    <t>d01d</t>
+  </si>
+  <si>
+    <t>d02d</t>
+  </si>
+  <si>
+    <t>d03d</t>
+  </si>
+  <si>
+    <t>r01d</t>
+  </si>
+  <si>
+    <t>r02d</t>
+  </si>
+  <si>
+    <t>r03d</t>
+  </si>
+  <si>
+    <t>f01d</t>
+  </si>
+  <si>
+    <t>r04d</t>
+  </si>
+  <si>
+    <t>r05d</t>
+  </si>
+  <si>
+    <t>r06d</t>
+  </si>
+  <si>
+    <t>s01d</t>
+  </si>
+  <si>
+    <t>s02d</t>
+  </si>
+  <si>
+    <t>s03d</t>
+  </si>
+  <si>
+    <t>s04d</t>
+  </si>
+  <si>
+    <t>s05d</t>
+  </si>
+  <si>
+    <t>s06d</t>
+  </si>
+  <si>
+    <t>a01d</t>
+  </si>
+  <si>
+    <t>a02d</t>
+  </si>
+  <si>
+    <t>a03d</t>
+  </si>
+  <si>
+    <t>a04d</t>
+  </si>
+  <si>
+    <t>a05d</t>
+  </si>
+  <si>
+    <t>a06d</t>
+  </si>
+  <si>
+    <t>u00d</t>
+  </si>
+  <si>
+    <t>c01d</t>
+  </si>
+  <si>
+    <t>c02d</t>
+  </si>
+  <si>
+    <t>c03d</t>
+  </si>
+  <si>
+    <t>c04d</t>
+  </si>
+  <si>
+    <t>t01n</t>
+  </si>
+  <si>
+    <t>t02n</t>
+  </si>
+  <si>
+    <t>t03n</t>
+  </si>
+  <si>
+    <t>t04n</t>
+  </si>
+  <si>
+    <t>t05n</t>
+  </si>
+  <si>
+    <t>r01n</t>
+  </si>
+  <si>
+    <t>r02n</t>
+  </si>
+  <si>
+    <t>r03n</t>
+  </si>
+  <si>
+    <t>f01n</t>
+  </si>
+  <si>
+    <t>r04n</t>
+  </si>
+  <si>
+    <t>r05n</t>
+  </si>
+  <si>
+    <t>r06n</t>
+  </si>
+  <si>
+    <t>s01n</t>
+  </si>
+  <si>
+    <t>s02n</t>
+  </si>
+  <si>
+    <t>s03n</t>
+  </si>
+  <si>
+    <t>s04n</t>
+  </si>
+  <si>
+    <t>s05n</t>
+  </si>
+  <si>
+    <t>s06n</t>
+  </si>
+  <si>
+    <t>a01n</t>
+  </si>
+  <si>
+    <t>a02n</t>
+  </si>
+  <si>
+    <t>a03n</t>
+  </si>
+  <si>
+    <t>a04n</t>
+  </si>
+  <si>
+    <t>a05n</t>
+  </si>
+  <si>
+    <t>a06n</t>
+  </si>
+  <si>
+    <t>c01n</t>
+  </si>
+  <si>
+    <t>c02n</t>
+  </si>
+  <si>
+    <t>c03n</t>
+  </si>
+  <si>
+    <t>c04n</t>
+  </si>
+  <si>
+    <t>u00n</t>
+  </si>
+  <si>
+    <t>d01n</t>
+  </si>
+  <si>
+    <t>d02n</t>
+  </si>
+  <si>
+    <t>d03n</t>
+  </si>
+  <si>
+    <t>DARKSKY</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>clear-day</t>
+  </si>
+  <si>
+    <t>clear-night</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>partly-cloudy-day</t>
+  </si>
+  <si>
+    <t>partly-cloudy-night</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -904,13 +1195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF505050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -934,18 +1218,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -959,14 +1237,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -974,8 +1252,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1270,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X967"/>
+  <dimension ref="A1:AH967"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1282,89 +1559,117 @@
     <col min="2" max="2" width="5.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="4.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="31.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="4.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="5.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="40.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="5" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="5.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="44.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="41.1640625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="47.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="5.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5" style="3" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="31.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="4.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="32.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="44.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.1640625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="47.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="4.83203125" style="3" customWidth="1"/>
+    <col min="22" max="24" width="5.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="26" width="40.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="5" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="5.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>216</v>
+        <v>96</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5">
         <v>0</v>
@@ -1375,48 +1680,64 @@
       <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>200</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>65</v>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>113</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3">
         <v>1000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="W3" s="3">
         <v>32</v>
       </c>
-      <c r="K3" s="3">
+      <c r="X3" s="3">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="Y3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="3">
         <v>113</v>
       </c>
-      <c r="P3" s="3">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>1</v>
@@ -1427,48 +1748,64 @@
       <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>201</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>65</v>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3">
+        <v>201</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>116</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3">
         <v>1003</v>
       </c>
-      <c r="J4" s="3">
+      <c r="W4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" s="3">
+      <c r="X4" s="3">
         <v>29</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="Y4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="3">
         <v>116</v>
       </c>
-      <c r="P4" s="3">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -1479,152 +1816,176 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>202</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3">
+        <v>202</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>119</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3">
         <v>1006</v>
       </c>
-      <c r="J5" s="3">
+      <c r="W5" s="3">
         <v>28</v>
       </c>
-      <c r="K5" s="3">
+      <c r="X5" s="3">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="Y5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" s="3">
         <v>119</v>
       </c>
-      <c r="P5" s="3">
-        <v>119</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>38</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>210</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="3">
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>122</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="3">
         <v>1009</v>
       </c>
-      <c r="J6" s="3">
+      <c r="W6" s="3">
         <v>26</v>
       </c>
-      <c r="K6" s="3">
+      <c r="X6" s="3">
         <v>26</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="Y6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="3">
         <v>122</v>
       </c>
-      <c r="P6" s="3">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>211</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="3">
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>143</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="3">
         <v>1030</v>
       </c>
-      <c r="J7" s="3">
+      <c r="W7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
+      <c r="X7" s="3">
         <v>20</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="Y7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA7" s="3">
         <v>143</v>
       </c>
-      <c r="P7" s="3">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5">
         <v>5</v>
@@ -1635,48 +1996,52 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>212</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>176</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="3">
         <v>1063</v>
       </c>
-      <c r="J8" s="3">
+      <c r="W8" s="3">
         <v>40</v>
       </c>
-      <c r="K8" s="3">
+      <c r="X8" s="3">
         <v>40</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA8" s="3">
         <v>176</v>
       </c>
-      <c r="P8" s="3">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5">
         <v>6</v>
@@ -1687,48 +2052,52 @@
       <c r="D9" s="3">
         <v>38</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>221</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>179</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="3">
         <v>1066</v>
       </c>
-      <c r="J9" s="3">
+      <c r="W9" s="3">
         <v>16</v>
       </c>
-      <c r="K9" s="3">
+      <c r="X9" s="3">
         <v>16</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" s="3">
         <v>179</v>
       </c>
-      <c r="P9" s="3">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -1739,48 +2108,64 @@
       <c r="D10" s="3">
         <v>38</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>230</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3">
+        <v>230</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>182</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="3">
         <v>1069</v>
       </c>
-      <c r="J10" s="3">
+      <c r="W10" s="3">
         <v>18</v>
       </c>
-      <c r="K10" s="3">
+      <c r="X10" s="3">
         <v>18</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA10" s="3">
         <v>182</v>
       </c>
-      <c r="P10" s="3">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -1791,48 +2176,64 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>231</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3">
+        <v>231</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>185</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="3">
         <v>1072</v>
       </c>
-      <c r="J11" s="3">
+      <c r="W11" s="3">
         <v>10</v>
       </c>
-      <c r="K11" s="3">
+      <c r="X11" s="3">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="Y11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="3">
         <v>185</v>
       </c>
-      <c r="P11" s="3">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -1843,48 +2244,64 @@
       <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>232</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>65</v>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="3">
+        <v>232</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="3">
         <v>1087</v>
       </c>
-      <c r="J12" s="3">
+      <c r="W12" s="3">
         <v>38</v>
       </c>
-      <c r="K12" s="3">
+      <c r="X12" s="3">
         <v>47</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="Y12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>10</v>
@@ -1895,41 +2312,47 @@
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
-        <v>300</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="3">
+        <v>233</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>227</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V13" s="3">
         <v>1114</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="Y13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="3">
         <v>227</v>
       </c>
-      <c r="P13" s="3">
-        <v>227</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5">
         <v>11</v>
@@ -1941,85 +2364,115 @@
         <v>9</v>
       </c>
       <c r="E14" s="3">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>230</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" s="3">
         <v>1117</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA14" s="3">
         <v>230</v>
       </c>
-      <c r="P14" s="3">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
       <c r="E15" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I15" s="3">
+        <v>301</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>248</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V15" s="3">
         <v>1135</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" s="3">
         <v>248</v>
       </c>
-      <c r="P15" s="3">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5">
         <v>13</v>
@@ -2031,40 +2484,52 @@
         <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I16" s="3">
+        <v>302</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>260</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V16" s="3">
         <v>1147</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="Y16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA16" s="3">
         <v>260</v>
       </c>
-      <c r="P16" s="3">
-        <v>260</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
         <v>14</v>
@@ -2076,40 +2541,40 @@
         <v>9</v>
       </c>
       <c r="E17" s="3">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>263</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V17" s="3">
         <v>1150</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" s="3">
         <v>263</v>
       </c>
-      <c r="P17" s="3">
-        <v>263</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5">
         <v>15</v>
@@ -2121,40 +2586,40 @@
         <v>9</v>
       </c>
       <c r="E18" s="3">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>266</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V18" s="3">
         <v>1153</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA18" s="3">
         <v>266</v>
       </c>
-      <c r="P18" s="3">
-        <v>266</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5">
         <v>16</v>
@@ -2166,40 +2631,40 @@
         <v>9</v>
       </c>
       <c r="E19" s="3">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>281</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V19" s="3">
         <v>1168</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="Y19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" s="3">
         <v>281</v>
       </c>
-      <c r="P19" s="3">
-        <v>281</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5">
         <v>17</v>
@@ -2211,40 +2676,40 @@
         <v>9</v>
       </c>
       <c r="E20" s="3">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>284</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V20" s="3">
         <v>1171</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA20" s="3">
         <v>284</v>
       </c>
-      <c r="P20" s="3">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5">
         <v>18</v>
@@ -2256,40 +2721,40 @@
         <v>9</v>
       </c>
       <c r="E21" s="3">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>293</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V21" s="3">
         <v>1180</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA21" s="3">
         <v>293</v>
       </c>
-      <c r="P21" s="3">
-        <v>293</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5">
         <v>19</v>
@@ -2298,40 +2763,40 @@
         <v>18</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>296</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V22" s="3">
         <v>1183</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA22" s="3">
         <v>296</v>
       </c>
-      <c r="P22" s="3">
-        <v>296</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5">
         <v>20</v>
@@ -2340,40 +2805,52 @@
         <v>19</v>
       </c>
       <c r="E23" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>299</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V23" s="3">
         <v>1186</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA23" s="3">
         <v>299</v>
       </c>
-      <c r="P23" s="3">
-        <v>299</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5">
         <v>21</v>
@@ -2382,40 +2859,52 @@
         <v>20</v>
       </c>
       <c r="E24" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I24" s="3">
+        <v>501</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>302</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V24" s="3">
         <v>1189</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA24" s="3">
         <v>302</v>
       </c>
-      <c r="P24" s="3">
-        <v>302</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5">
         <v>22</v>
@@ -2424,40 +2913,52 @@
         <v>21</v>
       </c>
       <c r="E25" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I25" s="3">
+        <v>502</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>305</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" s="3">
         <v>1192</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="Y25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" s="3">
         <v>305</v>
       </c>
-      <c r="P25" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5">
         <v>23</v>
@@ -2466,40 +2967,40 @@
         <v>22</v>
       </c>
       <c r="E26" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>308</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V26" s="3">
         <v>1195</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA26" s="3">
         <v>308</v>
       </c>
-      <c r="P26" s="3">
-        <v>308</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5">
         <v>24</v>
@@ -2508,40 +3009,40 @@
         <v>23</v>
       </c>
       <c r="E27" s="3">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>311</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V27" s="3">
         <v>1198</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA27" s="3">
         <v>311</v>
       </c>
-      <c r="P27" s="3">
-        <v>311</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5">
         <v>25</v>
@@ -2550,40 +3051,52 @@
         <v>24</v>
       </c>
       <c r="E28" s="3">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I28" s="3">
+        <v>511</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>314</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V28" s="3">
         <v>1201</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="Y28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA28" s="3">
         <v>314</v>
       </c>
-      <c r="P28" s="3">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5">
         <v>26</v>
@@ -2592,40 +3105,52 @@
         <v>25</v>
       </c>
       <c r="E29" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I29" s="3">
+        <v>520</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>317</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V29" s="3">
         <v>1204</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" s="3">
         <v>317</v>
       </c>
-      <c r="P29" s="3">
-        <v>317</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5">
         <v>27</v>
@@ -2634,40 +3159,52 @@
         <v>26</v>
       </c>
       <c r="E30" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I30" s="3">
+        <v>521</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>320</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V30" s="3">
         <v>1207</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="Y30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA30" s="3">
         <v>320</v>
       </c>
-      <c r="P30" s="3">
-        <v>320</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="5">
         <v>28</v>
@@ -2676,40 +3213,52 @@
         <v>27</v>
       </c>
       <c r="E31" s="3">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I31" s="3">
+        <v>522</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>323</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V31" s="3">
         <v>1210</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="Y31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA31" s="3">
         <v>323</v>
       </c>
-      <c r="P31" s="3">
-        <v>323</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5">
         <v>29</v>
@@ -2718,40 +3267,40 @@
         <v>28</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>326</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V32" s="3">
         <v>1213</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA32" s="3">
         <v>326</v>
       </c>
-      <c r="P32" s="3">
-        <v>326</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5">
         <v>30</v>
@@ -2760,40 +3309,52 @@
         <v>29</v>
       </c>
       <c r="E33" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>329</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V33" s="3">
         <v>1216</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA33" s="3">
         <v>329</v>
       </c>
-      <c r="P33" s="3">
-        <v>329</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5">
         <v>31</v>
@@ -2802,40 +3363,52 @@
         <v>30</v>
       </c>
       <c r="E34" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I34" s="3">
+        <v>601</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>332</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V34" s="3">
         <v>1219</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="Y34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA34" s="3">
         <v>332</v>
       </c>
-      <c r="P34" s="3">
-        <v>332</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5">
         <v>32</v>
@@ -2844,40 +3417,52 @@
         <v>31</v>
       </c>
       <c r="E35" s="3">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I35" s="3">
+        <v>602</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>335</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V35" s="3">
         <v>1222</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA35" s="3">
         <v>335</v>
       </c>
-      <c r="P35" s="3">
-        <v>335</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5">
         <v>33</v>
@@ -2885,41 +3470,44 @@
       <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="3">
-        <v>612</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I36" s="3">
+        <v>610</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>338</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V36" s="3">
         <v>1225</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="Y36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA36" s="3">
         <v>338</v>
       </c>
-      <c r="P36" s="3">
-        <v>338</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="5">
         <v>34</v>
@@ -2928,40 +3516,52 @@
         <v>33</v>
       </c>
       <c r="E37" s="3">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I37" s="3">
+        <v>611</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>350</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V37" s="3">
         <v>1237</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="Y37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA37" s="3">
         <v>350</v>
       </c>
-      <c r="P37" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="5">
         <v>35</v>
@@ -2970,40 +3570,52 @@
         <v>34</v>
       </c>
       <c r="E38" s="3">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I38" s="3">
+        <v>612</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>353</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V38" s="3">
         <v>1240</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N38" s="3">
+      <c r="Y38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA38" s="3">
         <v>353</v>
       </c>
-      <c r="P38" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5">
         <v>36</v>
@@ -3012,774 +3624,827 @@
         <v>35</v>
       </c>
       <c r="E39" s="3">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>356</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V39" s="3">
         <v>1243</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="Y39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA39" s="3">
         <v>356</v>
       </c>
-      <c r="P39" s="3">
-        <v>356</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="5">
         <v>37</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="3">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>359</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V40" s="3">
         <v>1246</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N40" s="3">
+      <c r="Y40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA40" s="3">
         <v>359</v>
       </c>
-      <c r="P40" s="3">
-        <v>359</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="5">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="3">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>362</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V41" s="3">
         <v>1249</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA41" s="3">
         <v>362</v>
       </c>
-      <c r="P41" s="3">
-        <v>362</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="5">
         <v>39</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>37</v>
+      <c r="C42" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E42" s="3">
-        <v>701</v>
+        <v>621</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I42" s="3">
+        <v>621</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>365</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V42" s="3">
         <v>1252</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA42" s="3">
         <v>365</v>
       </c>
-      <c r="P42" s="3">
-        <v>365</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="5">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="E43" s="3">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I43" s="3">
+        <v>622</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>368</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V43" s="3">
         <v>1255</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA43" s="3">
         <v>368</v>
       </c>
-      <c r="P43" s="3">
-        <v>368</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="5">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="3">
-        <v>721</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="I44" s="3">
+        <v>623</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>371</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V44" s="3">
         <v>1258</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA44" s="3">
         <v>371</v>
       </c>
-      <c r="P44" s="3">
-        <v>371</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="3">
-        <v>731</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>374</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="V45" s="3">
         <v>1261</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA45" s="3">
         <v>374</v>
       </c>
-      <c r="P45" s="3">
-        <v>374</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="5">
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="E46" s="3">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>377</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V46" s="3">
         <v>1264</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA46" s="3">
         <v>377</v>
       </c>
-      <c r="P46" s="3">
-        <v>377</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="E47" s="3">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I47" s="3">
+        <v>711</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>386</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V47" s="3">
         <v>1273</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA47" s="3">
         <v>386</v>
       </c>
-      <c r="P47" s="3">
-        <v>386</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="5">
         <v>45</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>42</v>
+      <c r="C48" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E48" s="3">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I48" s="3">
+        <v>721</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>389</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V48" s="3">
         <v>1276</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA48" s="3">
         <v>389</v>
       </c>
-      <c r="P48" s="3">
-        <v>389</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="5">
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="E49" s="3">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I49" s="3">
+        <v>731</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>392</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V49" s="3">
         <v>1279</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA49" s="3">
         <v>392</v>
       </c>
-      <c r="P49" s="3">
-        <v>392</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <v>47</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>44</v>
+      <c r="C50" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E50" s="3">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I50" s="3">
+        <v>741</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>395</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V50" s="3">
         <v>1282</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N50" s="3">
+      <c r="Y50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA50" s="3">
         <v>395</v>
       </c>
-      <c r="P50" s="3">
-        <v>395</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="3">
+        <v>751</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="3">
+        <v>751</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E52" s="3">
+        <v>761</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E53" s="3">
+        <v>762</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E54" s="3">
+        <v>771</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E55" s="3">
         <v>781</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E52" s="3">
+      <c r="G55" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E56" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E53" s="3">
-        <v>801</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E54" s="3">
-        <v>802</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E55" s="3">
-        <v>803</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E56" s="3">
-        <v>804</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I56" s="3">
+        <v>800</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D57" s="3">
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>801</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="3">
+        <v>801</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="3">
+        <v>802</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D59" s="3">
         <v>2</v>
       </c>
       <c r="E59" s="3">
-        <v>902</v>
+        <v>803</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="3">
+        <v>803</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E60" s="3">
-        <v>903</v>
+        <v>804</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E61" s="3">
-        <v>904</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E62" s="3">
-        <v>905</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E63" s="3">
-        <v>906</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E64" s="3">
-        <v>951</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="3">
-        <v>952</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="3">
-        <v>953</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="3">
-        <v>954</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="3">
-        <v>955</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="3">
-        <v>956</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="3">
-        <v>957</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="3">
-        <v>958</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="3">
-        <v>959</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>960</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>961</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="3">
-        <v>2</v>
-      </c>
-      <c r="E75" s="3">
-        <v>962</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="567" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W567" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X567" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="727" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W727" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X727" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="807" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W807" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X807" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="967" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W967" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X967" s="3" t="s">
-        <v>169</v>
+        <v>95</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="3">
+        <v>804</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I61" s="3">
+        <v>900</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="567" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K567" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L567" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="727" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K727" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L727" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="807" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K807" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="967" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K967" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L967" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P3:S50">
-    <sortCondition ref="P3:P50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q3:T50">
+    <sortCondition ref="Q3:Q50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3798,237 +4463,237 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/rainette/trunk/themes/codes.xlsx
+++ b/rainette/trunk/themes/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Sites/SPIP/plugins/rainette/themes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC7CAB-ADED-404F-B684-B9861BBFFF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AD336-C953-7C41-A4E0-8C24BE802A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37820" yWindow="460" windowWidth="32300" windowHeight="22280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,30 +1547,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH967"/>
+  <dimension ref="A1:AB967"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="30.83203125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="4.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="31.83203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.83203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="4.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="32.5" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.83203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.5" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.1640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="31.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="4.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="32.5" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.83203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.5" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="22" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="5.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="6" style="3" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="44.83203125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="41.1640625" style="3" customWidth="1" outlineLevel="1"/>
